--- a/LOGS/d91d4c11-d5ab-49d6-80ca-d61fd850bb18/main_page_service_output/notes_standard_cropped_df.xlsx
+++ b/LOGS/d91d4c11-d5ab-49d6-80ca-d61fd850bb18/main_page_service_output/notes_standard_cropped_df.xlsx
@@ -1112,7 +1112,7 @@
         <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="C9">
         <v>57961</v>
@@ -1260,7 +1260,7 @@
         <v>74</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="C17">
         <v>52593</v>
@@ -7160,7 +7160,7 @@
         <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="C9">
         <v>57961</v>
@@ -7308,7 +7308,7 @@
         <v>74</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="C17">
         <v>52593</v>
